--- a/excel/Прайс.xlsx
+++ b/excel/Прайс.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlad9\Desktop\temps\zakazi\nima-dorzihevich\proremont\excel таблицы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlad9\Desktop\temps\zakazi\nima-dorzihevich\git_ex\proremont v0.0.2.9.9\proremont\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B31F890-4A3F-4E80-86E4-3F2C928EAE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05574CE8-20C8-4E38-8640-39AF10DC05B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9360" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Работы и цены" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="Земляные работы" sheetId="6" r:id="rId3"/>
     <sheet name="Гидроизоляционные работы" sheetId="7" r:id="rId4"/>
     <sheet name="Теплоизоляция" sheetId="8" r:id="rId5"/>
+    <sheet name="Сантехнические работы" sheetId="9" r:id="rId6"/>
+    <sheet name="Монтаж, замена труб" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="149">
   <si>
     <t>Наименование работ</t>
   </si>
@@ -207,6 +209,270 @@
   </si>
   <si>
     <t>Укладка экструдированого пенополистирола δ=20-100мм в 2 слоя (горизонтальная часть)</t>
+  </si>
+  <si>
+    <t>Установка аксессуаров</t>
+  </si>
+  <si>
+    <t>комп.</t>
+  </si>
+  <si>
+    <t>Установка системы контроля протечки воды (ХГВ)</t>
+  </si>
+  <si>
+    <t>Установка шкафа</t>
+  </si>
+  <si>
+    <t>Установка трапа</t>
+  </si>
+  <si>
+    <t>Установка дверок душевой кабины</t>
+  </si>
+  <si>
+    <t>Установка поддона душевой кабины</t>
+  </si>
+  <si>
+    <t>Установка душевой панели</t>
+  </si>
+  <si>
+    <t>Установка душевой кабины с поддоном</t>
+  </si>
+  <si>
+    <t>Установка гидромассажной ванны</t>
+  </si>
+  <si>
+    <t>Установка экрана ванны</t>
+  </si>
+  <si>
+    <t>Установка смесителя ванны на штанге</t>
+  </si>
+  <si>
+    <t>Установка ванны</t>
+  </si>
+  <si>
+    <t>Установка стиральной машины</t>
+  </si>
+  <si>
+    <t>Установка полотенцесушителя</t>
+  </si>
+  <si>
+    <t>Установка гигиенического душа</t>
+  </si>
+  <si>
+    <t>Установка смесителя</t>
+  </si>
+  <si>
+    <t>Установка "мойдодыра"</t>
+  </si>
+  <si>
+    <t>Установка умывальника</t>
+  </si>
+  <si>
+    <t>Установка писсуара</t>
+  </si>
+  <si>
+    <t>Установка унитаза</t>
+  </si>
+  <si>
+    <t>Установка биде</t>
+  </si>
+  <si>
+    <t>Установка подвесного унитаза</t>
+  </si>
+  <si>
+    <t>Установка инсталляции</t>
+  </si>
+  <si>
+    <t>Установка проточного водонагревателя</t>
+  </si>
+  <si>
+    <t>Установка накопительного водонагревателя (бойлера)</t>
+  </si>
+  <si>
+    <t>п.м.</t>
+  </si>
+  <si>
+    <t>Теплоизоляция труб</t>
+  </si>
+  <si>
+    <t>Врезка в водопроводный стояк</t>
+  </si>
+  <si>
+    <t>Врезка в канализационный стояк</t>
+  </si>
+  <si>
+    <t>Прокладка канализационных труб (ПВХ)</t>
+  </si>
+  <si>
+    <t>Прокладка труб ХГВ (м/пласт, п/пропилен, п/этилен)</t>
+  </si>
+  <si>
+    <t>Установка коллектора (комплекс работ)</t>
+  </si>
+  <si>
+    <t>Установка фильтра тонкой очистки с регулятором давления</t>
+  </si>
+  <si>
+    <t>Переделка узла подводки полотенцесушителя</t>
+  </si>
+  <si>
+    <t>Установка счетчика воды</t>
+  </si>
+  <si>
+    <t>Установка фильтра грубой очистки</t>
+  </si>
+  <si>
+    <t>Установка шарового крана</t>
+  </si>
+  <si>
+    <t>Заделка сантехнической штробы</t>
+  </si>
+  <si>
+    <t>Устройство сантехнической штробы</t>
+  </si>
+  <si>
+    <t>Устройство временного водоснабжения</t>
+  </si>
+  <si>
+    <t>этаж</t>
+  </si>
+  <si>
+    <t>Замена стояка (отопление.)</t>
+  </si>
+  <si>
+    <t>Замена стояка (водопровод.)</t>
+  </si>
+  <si>
+    <t>Замена стояка (канализ.)</t>
+  </si>
+  <si>
+    <t>Монтаж + демонтаж радиатора (бимет.)</t>
+  </si>
+  <si>
+    <t>точка</t>
+  </si>
+  <si>
+    <t>Разводка водопровода</t>
+  </si>
+  <si>
+    <t>Пробивание отверстия для трубопровода Ø 60…110 мм. глубиной 400…600 мм</t>
+  </si>
+  <si>
+    <t>Пробивание отверстия для трубопровода Ø 60…110 мм. глубиной 250...400 мм.</t>
+  </si>
+  <si>
+    <t>Пробивание отверстия для трубопровода Ø 60…110 мм. глубиной до 250 мм.</t>
+  </si>
+  <si>
+    <t>Пробивание отверстия для трубопровода Ø 32...60 мм. глубиной 400…600 мм</t>
+  </si>
+  <si>
+    <t>Пробивание отверстия для трубопровода Ø 32...60 мм. глубиной 250...400 мм.</t>
+  </si>
+  <si>
+    <t>Пробивание отверстия для трубопровода Ø 32...60 мм. глубиной до 250 мм.</t>
+  </si>
+  <si>
+    <t>Пробивание отверстия для трубопровода Ø до 32 мм. глубиной 400...600 мм.</t>
+  </si>
+  <si>
+    <t>Пробивание отверстия для трубопровода Ø до 32 мм. глубиной 250...400 мм.</t>
+  </si>
+  <si>
+    <t>Пробивание отверстия для трубопровода Ø до 32 мм. глубиной до 250 мм.</t>
+  </si>
+  <si>
+    <t>Сверление отверстий Ø до 32 мм. в деревянных балках перекрытий</t>
+  </si>
+  <si>
+    <t>Сверление отверстий Ø до 32 мм. в металлоконструкциях</t>
+  </si>
+  <si>
+    <t>м. п.</t>
+  </si>
+  <si>
+    <t>Штробление под трубопровод Ø 60...110 мм. (кирпич, гипсолит)</t>
+  </si>
+  <si>
+    <t>Штробление под трубопровод Ø 32...60 мм (кирпич, гипсолит)</t>
+  </si>
+  <si>
+    <t>Штробление под трубопровод Ø до 25 мм (кирпич, гипсолит)</t>
+  </si>
+  <si>
+    <t>Монтаж насоса, повышающего давление</t>
+  </si>
+  <si>
+    <t>Монтаж насосного оборудования</t>
+  </si>
+  <si>
+    <t>Обвязка септика-канализации</t>
+  </si>
+  <si>
+    <t>Установка сантехнического шкафа</t>
+  </si>
+  <si>
+    <t>Устройство поэтажных распределительных гребёнок</t>
+  </si>
+  <si>
+    <t>Вваривание патрубка-врезки ф 1/2 в стальную трубу ф от 3/4</t>
+  </si>
+  <si>
+    <t>Нарезание резьбы на трубопроводах Ø до 1 1/4"</t>
+  </si>
+  <si>
+    <t>Нарезание резьбы на трубопроводах Ø до 3/4"</t>
+  </si>
+  <si>
+    <t>Утепление вертикального участка трубопровода при вводе в здание</t>
+  </si>
+  <si>
+    <t>Теплоизоляция труб Ø до 50 мм. мягкой трубной теплоизоляцией</t>
+  </si>
+  <si>
+    <t>Разводка труб наружной канализации в готовой траншее до Ø 110</t>
+  </si>
+  <si>
+    <t>Монтаж канализации (высотка) Ванна+Туалет+Кухня раб.+мат.</t>
+  </si>
+  <si>
+    <t>Монтаж канализации (хрущёвка, стандарт) раб.+мат.</t>
+  </si>
+  <si>
+    <t>Замена чугунного стояка канализации Ø 73 на ПВХ Ø 50 по этажу без замены нижнего тройника работа + мат.</t>
+  </si>
+  <si>
+    <t>Замена чугунного стояка канализации Ø 73 на ПВХ Ø 50 по этажу с заменой нижнего тройника работа + мат.</t>
+  </si>
+  <si>
+    <t>Замена чугунного стояка канализации Ø 123 на ПВХ Ø 110 по этажу без замены тройника под унитаз работа + мат.</t>
+  </si>
+  <si>
+    <t>Замена чугунного стояка канализации Ø 123 на ПВХ Ø 110 по этажу с заменой тройника под унитаз работа + мат.</t>
+  </si>
+  <si>
+    <t>Разводка труб холодной / горячей воды Ø до 40</t>
+  </si>
+  <si>
+    <t>Разводка труб отопления Ø до 40</t>
+  </si>
+  <si>
+    <t>Монтаж водопровода (высотка) Ванна+Туалет+Кухня раб.+мат.</t>
+  </si>
+  <si>
+    <t>Монтаж водопровода (хрущёвка, стандарт) раб.+мат.</t>
+  </si>
+  <si>
+    <t>Выходы через перекрытие</t>
+  </si>
+  <si>
+    <t>Стояк отопления ф 25 PPR раб.+мат.</t>
+  </si>
+  <si>
+    <t>Стояк горячей воды Ø 25 PPR раб.+мат.</t>
+  </si>
+  <si>
+    <t>Стояк холодной воды Ø 25 PPR раб.+мат.</t>
   </si>
 </sst>
 </file>
@@ -701,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8A21BA-7D8C-47FA-90DB-CABCA22E395B}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1339,4 +1605,973 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D084D07-D6D4-4DFD-8832-803B0B296424}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935B9C19-A65B-43AB-AC6B-68660F086A32}">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="106.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>2100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>